--- a/products_from_sample_yogya-avril.xlsx
+++ b/products_from_sample_yogya-avril.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="520">
   <si>
     <t>Category</t>
   </si>
@@ -1457,9 +1457,6 @@
     <t>Brand Code</t>
   </si>
   <si>
-    <t>AVRIL</t>
-  </si>
-  <si>
     <t>Group Name</t>
   </si>
   <si>
@@ -1572,6 +1569,12 @@
   </si>
   <si>
     <t>Product Name</t>
+  </si>
+  <si>
+    <t>AVRIL-PT</t>
+  </si>
+  <si>
+    <t>AVRIL-RESTO</t>
   </si>
 </sst>
 </file>
@@ -1960,13 +1963,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
@@ -1990,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2010,10 +2013,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -2040,10 +2043,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -2070,10 +2073,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B4" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -2102,10 +2105,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B5" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -2132,10 +2135,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -2162,10 +2165,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -2192,10 +2195,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B8" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -2222,10 +2225,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -2252,10 +2255,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -2282,10 +2285,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -2312,10 +2315,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -2342,10 +2345,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -2372,10 +2375,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B14" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -2402,10 +2405,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
@@ -2432,10 +2435,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B16" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -2462,10 +2465,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B17" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
@@ -2492,10 +2495,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -2522,10 +2525,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B19" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -2552,10 +2555,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B20" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -2582,10 +2585,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B21" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
@@ -2612,10 +2615,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B22" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -2642,10 +2645,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B23" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
@@ -2672,10 +2675,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B24" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
@@ -2702,10 +2705,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B25" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
@@ -2732,10 +2735,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B26" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
@@ -2762,10 +2765,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B27" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
@@ -2792,10 +2795,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B28" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
@@ -2824,10 +2827,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B29" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
@@ -2856,10 +2859,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B30" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
@@ -2888,10 +2891,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B31" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
@@ -2920,10 +2923,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B32" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
@@ -2952,10 +2955,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B33" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
@@ -2984,10 +2987,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B34" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
@@ -3016,10 +3019,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B35" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
@@ -3048,10 +3051,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B36" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
@@ -3080,10 +3083,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B37" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
@@ -3112,10 +3115,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B38" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
@@ -3144,10 +3147,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B39" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>7</v>
@@ -3176,10 +3179,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B40" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>7</v>
@@ -3208,10 +3211,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B41" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
@@ -3240,10 +3243,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B42" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
@@ -3272,10 +3275,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B43" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>7</v>
@@ -3304,10 +3307,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B44" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
@@ -3336,10 +3339,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B45" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>7</v>
@@ -3368,10 +3371,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B46" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>7</v>
@@ -3400,10 +3403,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B47" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>7</v>
@@ -3432,10 +3435,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B48" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>7</v>
@@ -3462,10 +3465,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B49" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7</v>
@@ -3492,10 +3495,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B50" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>7</v>
@@ -3522,10 +3525,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B51" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>7</v>
@@ -3552,10 +3555,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B52" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>7</v>
@@ -3584,10 +3587,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B53" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>7</v>
@@ -3616,10 +3619,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B54" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>7</v>
@@ -3648,10 +3651,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B55" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>7</v>
@@ -3680,10 +3683,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B56" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>176</v>
@@ -3710,10 +3713,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B57" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>176</v>
@@ -3740,10 +3743,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B58" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>176</v>
@@ -3770,10 +3773,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B59" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>176</v>
@@ -3800,10 +3803,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B60" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>176</v>
@@ -3830,10 +3833,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B61" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>176</v>
@@ -3860,10 +3863,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B62" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>176</v>
@@ -3890,10 +3893,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B63" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>176</v>
@@ -3920,10 +3923,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B64" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>176</v>
@@ -3950,10 +3953,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B65" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>176</v>
@@ -3980,10 +3983,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B66" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>176</v>
@@ -4010,10 +4013,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B67" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>176</v>
@@ -4040,10 +4043,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B68" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>176</v>
@@ -4070,10 +4073,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B69" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>176</v>
@@ -4100,10 +4103,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B70" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>176</v>
@@ -4130,10 +4133,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B71" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>176</v>
@@ -4160,10 +4163,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B72" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>176</v>
@@ -4190,10 +4193,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B73" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>176</v>
@@ -4220,10 +4223,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B74" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>176</v>
@@ -4250,10 +4253,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B75" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>176</v>
@@ -4280,10 +4283,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B76" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>176</v>
@@ -4310,10 +4313,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>176</v>
@@ -4340,10 +4343,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B78" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>176</v>
@@ -4370,10 +4373,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>176</v>
@@ -4400,10 +4403,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B80" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>176</v>
@@ -4432,10 +4435,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B81" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>176</v>
@@ -4464,10 +4467,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B82" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>176</v>
@@ -4494,10 +4497,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B83" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>176</v>
@@ -4526,10 +4529,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B84" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>176</v>
@@ -4558,10 +4561,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B85" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>176</v>
@@ -4590,10 +4593,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B86" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>176</v>
@@ -4620,10 +4623,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B87" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>176</v>
@@ -4650,10 +4653,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>176</v>
@@ -4680,10 +4683,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B89" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>176</v>
@@ -4710,10 +4713,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B90" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>176</v>
@@ -4740,10 +4743,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B91" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>176</v>
@@ -4770,10 +4773,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B92" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>176</v>
@@ -4800,10 +4803,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B93" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>176</v>
@@ -4830,10 +4833,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B94" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>176</v>
@@ -4860,10 +4863,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B95" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>176</v>
@@ -4890,10 +4893,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B96" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>176</v>
@@ -4920,10 +4923,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B97" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>176</v>
@@ -4950,10 +4953,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B98" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>176</v>
@@ -4980,10 +4983,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B99" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>176</v>
@@ -5010,10 +5013,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B100" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>176</v>
@@ -5040,10 +5043,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B101" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>176</v>
@@ -5070,10 +5073,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B102" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>176</v>
@@ -5100,10 +5103,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B103" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>176</v>
@@ -5130,10 +5133,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B104" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>176</v>
@@ -5160,10 +5163,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B105" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>176</v>
@@ -5190,10 +5193,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B106" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>176</v>
@@ -5220,10 +5223,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B107" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>176</v>
@@ -5250,10 +5253,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B108" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>176</v>
@@ -5280,10 +5283,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B109" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>176</v>
@@ -5310,10 +5313,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B110" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>176</v>
@@ -5340,10 +5343,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B111" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>176</v>
@@ -5370,10 +5373,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B112" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>176</v>
@@ -5400,10 +5403,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B113" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>176</v>
@@ -5430,10 +5433,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B114" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>176</v>
@@ -5460,10 +5463,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B115" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>176</v>
@@ -5490,10 +5493,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B116" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>176</v>
@@ -5520,10 +5523,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B117" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>176</v>
@@ -5550,10 +5553,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B118" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>176</v>
@@ -5580,10 +5583,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B119" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>176</v>
@@ -5610,10 +5613,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B120" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>176</v>
@@ -5640,10 +5643,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B121" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>176</v>
@@ -5670,10 +5673,10 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B122" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>176</v>
@@ -5700,10 +5703,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B123" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>176</v>
@@ -5730,10 +5733,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B124" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>176</v>
@@ -5760,10 +5763,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B125" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>176</v>
@@ -5790,10 +5793,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B126" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>176</v>
@@ -5820,10 +5823,10 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B127" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>420</v>
@@ -5850,10 +5853,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B128" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>420</v>
@@ -5880,10 +5883,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B129" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>420</v>
@@ -5910,10 +5913,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B130" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>420</v>
@@ -5940,10 +5943,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B131" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>420</v>
@@ -5970,10 +5973,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B132" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>420</v>
@@ -6000,10 +6003,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B133" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>420</v>
@@ -6030,10 +6033,10 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B134" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>420</v>
@@ -6060,10 +6063,10 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B135" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>420</v>
@@ -6090,10 +6093,10 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B136" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>420</v>
@@ -6120,10 +6123,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B137" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>420</v>
@@ -6150,10 +6153,10 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B138" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>420</v>
@@ -6180,10 +6183,10 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B139" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>420</v>
@@ -6210,10 +6213,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B140" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>420</v>
@@ -6240,10 +6243,10 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B141" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>420</v>
@@ -6270,10 +6273,10 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B142" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>420</v>
@@ -6300,10 +6303,10 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B143" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>420</v>
@@ -6330,10 +6333,10 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="B144" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>420</v>
@@ -6383,33 +6386,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -6417,16 +6420,16 @@
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -6437,13 +6440,13 @@
         <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -6454,13 +6457,13 @@
         <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -6471,13 +6474,13 @@
         <v>167</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -6488,13 +6491,13 @@
         <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -6502,16 +6505,16 @@
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -6519,16 +6522,16 @@
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -6536,16 +6539,16 @@
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -6553,16 +6556,16 @@
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -6570,16 +6573,16 @@
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -6587,16 +6590,16 @@
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -6604,16 +6607,16 @@
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -6621,16 +6624,16 @@
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C15" s="5">
         <v>10000</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -6638,16 +6641,16 @@
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C16" s="5">
         <v>10000</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -6655,16 +6658,16 @@
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -6672,16 +6675,16 @@
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -6692,13 +6695,13 @@
         <v>276</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -6709,13 +6712,13 @@
         <v>276</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -6726,13 +6729,13 @@
         <v>276</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -6743,13 +6746,13 @@
         <v>276</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -6760,13 +6763,13 @@
         <v>342</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -6777,13 +6780,13 @@
         <v>342</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -6794,13 +6797,13 @@
         <v>342</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -6811,13 +6814,13 @@
         <v>342</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
